--- a/Work In Progress/GanttChart.xlsx
+++ b/Work In Progress/GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackgoodman\Desktop\SeniorProject\SeniorProject\Work In Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B817536-37A8-46D2-B507-58830400A645}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF1779F-288A-4CD8-8C4C-E8F9B5BEA453}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{ACC98B4F-6263-42FD-BBD7-B54DBE8ECCFF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>Pre-Alpha</t>
   </si>
@@ -216,48 +216,15 @@
     <t>SP 17</t>
   </si>
   <si>
-    <t>Escape Pod Mechanics</t>
-  </si>
-  <si>
-    <t>Escape Pod Models</t>
-  </si>
-  <si>
     <t>Tutorial Textures</t>
   </si>
   <si>
-    <t>Workshop Mechanics</t>
-  </si>
-  <si>
-    <t>Escape Mechanics</t>
-  </si>
-  <si>
-    <t>Workshop Models</t>
-  </si>
-  <si>
-    <t>Extra models for Escape</t>
-  </si>
-  <si>
-    <t>Promotional Poster</t>
-  </si>
-  <si>
     <t>Minerva Animations</t>
   </si>
   <si>
-    <t>S5-ANT Animations</t>
-  </si>
-  <si>
     <t>Generator Room Models</t>
   </si>
   <si>
-    <t>Generator Room textures</t>
-  </si>
-  <si>
-    <t>Generator Room animations</t>
-  </si>
-  <si>
-    <t>User test (Full LVL2 Walkthrough)</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -289,13 +256,76 @@
   </si>
   <si>
     <t>Arm Menu</t>
+  </si>
+  <si>
+    <t>Full User Test Walkthrough (LVLS 1-2)</t>
+  </si>
+  <si>
+    <t>Puzzle Meeting</t>
+  </si>
+  <si>
+    <t>Restructure Social Media Updates</t>
+  </si>
+  <si>
+    <t>S5-ANT Rig and Animations</t>
+  </si>
+  <si>
+    <t>Minerva Textures</t>
+  </si>
+  <si>
+    <t>S5-ANT Textures</t>
+  </si>
+  <si>
+    <t>Motion Graphics</t>
+  </si>
+  <si>
+    <t>Time Tool Prop Model</t>
+  </si>
+  <si>
+    <t>Time Tool Mechanics</t>
+  </si>
+  <si>
+    <t>S5-ANT Mechanics Finalize</t>
+  </si>
+  <si>
+    <t>Master Merge</t>
+  </si>
+  <si>
+    <t>Generator Room Lighting</t>
+  </si>
+  <si>
+    <t>Metis Model</t>
+  </si>
+  <si>
+    <t>Escape Pod Model</t>
+  </si>
+  <si>
+    <t>Time Tool FX</t>
+  </si>
+  <si>
+    <t>Generator Room Models Complete</t>
+  </si>
+  <si>
+    <t>Social Update</t>
+  </si>
+  <si>
+    <t>Bug Fixing</t>
+  </si>
+  <si>
+    <t>User Experience Test</t>
+  </si>
+  <si>
+    <t>Escape Room Model</t>
+  </si>
+  <si>
+    <t>Sounds / Foley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +344,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -435,6 +479,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3922BF-8A42-45B6-90AA-5759574E5D6A}">
-  <dimension ref="A1:AZ109"/>
+  <dimension ref="A1:AZ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1663,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1625,9 +1677,9 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
@@ -1654,7 +1706,7 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1668,9 +1720,9 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
@@ -1797,9 +1849,9 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
@@ -2356,10 +2408,10 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="23"/>
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
@@ -2399,10 +2451,10 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="23"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
       <c r="AC38" s="12"/>
@@ -2442,10 +2494,10 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="23"/>
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
       <c r="AC39" s="12"/>
@@ -2485,10 +2537,10 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="23"/>
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
       <c r="AC40" s="12"/>
@@ -2528,10 +2580,10 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="23"/>
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
@@ -2571,10 +2623,10 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="23"/>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
@@ -2614,10 +2666,10 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="23"/>
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
       <c r="AC43" s="12"/>
@@ -2657,10 +2709,10 @@
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="23"/>
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
       <c r="AC44" s="12"/>
@@ -2700,10 +2752,10 @@
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="23"/>
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="12"/>
@@ -2743,10 +2795,10 @@
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
       <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="12"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="23"/>
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
       <c r="AC46" s="12"/>
@@ -2786,10 +2838,10 @@
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
       <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="12"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="23"/>
       <c r="AA47" s="12"/>
       <c r="AB47" s="12"/>
       <c r="AC47" s="12"/>
@@ -2806,7 +2858,7 @@
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2829,10 +2881,10 @@
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
       <c r="V48" s="12"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="12"/>
-      <c r="Z48" s="12"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="23"/>
       <c r="AA48" s="12"/>
       <c r="AB48" s="12"/>
       <c r="AC48" s="12"/>
@@ -2875,7 +2927,7 @@
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
       <c r="AB49" s="12"/>
-      <c r="AC49" s="12"/>
+      <c r="AC49" s="19"/>
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
       <c r="AF49" s="12"/>
@@ -2915,10 +2967,10 @@
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="19"/>
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
       <c r="AF50" s="12"/>
@@ -2958,10 +3010,10 @@
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="12"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="19"/>
       <c r="AD51" s="12"/>
       <c r="AE51" s="12"/>
       <c r="AF51" s="12"/>
@@ -3001,10 +3053,10 @@
       <c r="W52" s="12"/>
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="19"/>
       <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
       <c r="AF52" s="12"/>
@@ -3042,9 +3094,9 @@
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="12"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
       <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
       <c r="AF53" s="12"/>
@@ -3087,9 +3139,9 @@
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
       <c r="AB54" s="12"/>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
       <c r="AF54" s="12"/>
       <c r="AG54" s="12"/>
       <c r="AH54" s="12"/>
@@ -3130,9 +3182,9 @@
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="13"/>
       <c r="AF55" s="12"/>
       <c r="AG55" s="12"/>
       <c r="AH55" s="12"/>
@@ -3173,9 +3225,9 @@
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
       <c r="AB56" s="12"/>
-      <c r="AC56" s="12"/>
-      <c r="AD56" s="12"/>
-      <c r="AE56" s="12"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="13"/>
       <c r="AF56" s="12"/>
       <c r="AG56" s="12"/>
       <c r="AH56" s="12"/>
@@ -3216,9 +3268,9 @@
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
       <c r="AB57" s="12"/>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="12"/>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="15"/>
       <c r="AF57" s="12"/>
       <c r="AG57" s="12"/>
       <c r="AH57" s="12"/>
@@ -3259,9 +3311,9 @@
       <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
       <c r="AB58" s="12"/>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="15"/>
       <c r="AF58" s="12"/>
       <c r="AG58" s="12"/>
       <c r="AH58" s="12"/>
@@ -3355,9 +3407,7 @@
       <c r="AM60" s="12"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="A61" s="4"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -3399,7 +3449,7 @@
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3431,9 +3481,9 @@
       <c r="AC62" s="12"/>
       <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
-      <c r="AF62" s="12"/>
-      <c r="AG62" s="12"/>
-      <c r="AH62" s="12"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="15"/>
+      <c r="AH62" s="15"/>
       <c r="AI62" s="12"/>
       <c r="AJ62" s="12"/>
       <c r="AK62" s="12"/>
@@ -3442,7 +3492,7 @@
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3474,9 +3524,9 @@
       <c r="AC63" s="12"/>
       <c r="AD63" s="12"/>
       <c r="AE63" s="12"/>
-      <c r="AF63" s="12"/>
-      <c r="AG63" s="12"/>
-      <c r="AH63" s="12"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="24"/>
+      <c r="AH63" s="24"/>
       <c r="AI63" s="12"/>
       <c r="AJ63" s="12"/>
       <c r="AK63" s="12"/>
@@ -3485,7 +3535,7 @@
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3517,9 +3567,9 @@
       <c r="AC64" s="12"/>
       <c r="AD64" s="12"/>
       <c r="AE64" s="12"/>
-      <c r="AF64" s="12"/>
-      <c r="AG64" s="12"/>
-      <c r="AH64" s="12"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="15"/>
+      <c r="AH64" s="15"/>
       <c r="AI64" s="12"/>
       <c r="AJ64" s="12"/>
       <c r="AK64" s="12"/>
@@ -3527,6 +3577,9 @@
       <c r="AM64" s="12"/>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -3557,9 +3610,9 @@
       <c r="AC65" s="12"/>
       <c r="AD65" s="12"/>
       <c r="AE65" s="12"/>
-      <c r="AF65" s="12"/>
-      <c r="AG65" s="12"/>
-      <c r="AH65" s="12"/>
+      <c r="AF65" s="25"/>
+      <c r="AG65" s="25"/>
+      <c r="AH65" s="25"/>
       <c r="AI65" s="12"/>
       <c r="AJ65" s="12"/>
       <c r="AK65" s="12"/>
@@ -3567,6 +3620,9 @@
       <c r="AM65" s="12"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -3597,9 +3653,9 @@
       <c r="AC66" s="12"/>
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
-      <c r="AF66" s="12"/>
-      <c r="AG66" s="12"/>
-      <c r="AH66" s="12"/>
+      <c r="AF66" s="25"/>
+      <c r="AG66" s="25"/>
+      <c r="AH66" s="25"/>
       <c r="AI66" s="12"/>
       <c r="AJ66" s="12"/>
       <c r="AK66" s="12"/>
@@ -3607,6 +3663,9 @@
       <c r="AM66" s="12"/>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -3637,9 +3696,9 @@
       <c r="AC67" s="12"/>
       <c r="AD67" s="12"/>
       <c r="AE67" s="12"/>
-      <c r="AF67" s="12"/>
-      <c r="AG67" s="12"/>
-      <c r="AH67" s="12"/>
+      <c r="AF67" s="26"/>
+      <c r="AG67" s="26"/>
+      <c r="AH67" s="26"/>
       <c r="AI67" s="12"/>
       <c r="AJ67" s="12"/>
       <c r="AK67" s="12"/>
@@ -3647,6 +3706,9 @@
       <c r="AM67" s="12"/>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -3677,9 +3739,9 @@
       <c r="AC68" s="12"/>
       <c r="AD68" s="12"/>
       <c r="AE68" s="12"/>
-      <c r="AF68" s="12"/>
-      <c r="AG68" s="12"/>
-      <c r="AH68" s="12"/>
+      <c r="AF68" s="26"/>
+      <c r="AG68" s="26"/>
+      <c r="AH68" s="26"/>
       <c r="AI68" s="12"/>
       <c r="AJ68" s="12"/>
       <c r="AK68" s="12"/>
@@ -3687,6 +3749,9 @@
       <c r="AM68" s="12"/>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -3717,9 +3782,9 @@
       <c r="AC69" s="12"/>
       <c r="AD69" s="12"/>
       <c r="AE69" s="12"/>
-      <c r="AF69" s="12"/>
-      <c r="AG69" s="12"/>
-      <c r="AH69" s="12"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
       <c r="AI69" s="12"/>
       <c r="AJ69" s="12"/>
       <c r="AK69" s="12"/>
@@ -3727,8 +3792,8 @@
       <c r="AM69" s="12"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>63</v>
+      <c r="A70" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3760,9 +3825,9 @@
       <c r="AC70" s="12"/>
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
-      <c r="AF70" s="12"/>
-      <c r="AG70" s="12"/>
-      <c r="AH70" s="12"/>
+      <c r="AF70" s="26"/>
+      <c r="AG70" s="26"/>
+      <c r="AH70" s="26"/>
       <c r="AI70" s="12"/>
       <c r="AJ70" s="12"/>
       <c r="AK70" s="12"/>
@@ -3770,6 +3835,9 @@
       <c r="AM70" s="12"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -3800,9 +3868,9 @@
       <c r="AC71" s="12"/>
       <c r="AD71" s="12"/>
       <c r="AE71" s="12"/>
-      <c r="AF71" s="12"/>
-      <c r="AG71" s="12"/>
-      <c r="AH71" s="12"/>
+      <c r="AF71" s="27"/>
+      <c r="AG71" s="27"/>
+      <c r="AH71" s="27"/>
       <c r="AI71" s="12"/>
       <c r="AJ71" s="12"/>
       <c r="AK71" s="12"/>
@@ -3810,8 +3878,8 @@
       <c r="AM71" s="12"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>64</v>
+      <c r="A72" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3843,9 +3911,9 @@
       <c r="AC72" s="12"/>
       <c r="AD72" s="12"/>
       <c r="AE72" s="12"/>
-      <c r="AF72" s="12"/>
-      <c r="AG72" s="12"/>
-      <c r="AH72" s="12"/>
+      <c r="AF72" s="25"/>
+      <c r="AG72" s="25"/>
+      <c r="AH72" s="25"/>
       <c r="AI72" s="12"/>
       <c r="AJ72" s="12"/>
       <c r="AK72" s="12"/>
@@ -3853,6 +3921,9 @@
       <c r="AM72" s="12"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -3883,9 +3954,9 @@
       <c r="AC73" s="12"/>
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
-      <c r="AF73" s="12"/>
-      <c r="AG73" s="12"/>
-      <c r="AH73" s="12"/>
+      <c r="AF73" s="28"/>
+      <c r="AG73" s="28"/>
+      <c r="AH73" s="28"/>
       <c r="AI73" s="12"/>
       <c r="AJ73" s="12"/>
       <c r="AK73" s="12"/>
@@ -3893,8 +3964,8 @@
       <c r="AM73" s="12"/>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>66</v>
+      <c r="A74" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3926,9 +3997,9 @@
       <c r="AC74" s="12"/>
       <c r="AD74" s="12"/>
       <c r="AE74" s="12"/>
-      <c r="AF74" s="12"/>
-      <c r="AG74" s="12"/>
-      <c r="AH74" s="12"/>
+      <c r="AF74" s="18"/>
+      <c r="AG74" s="18"/>
+      <c r="AH74" s="18"/>
       <c r="AI74" s="12"/>
       <c r="AJ74" s="12"/>
       <c r="AK74" s="12"/>
@@ -3936,8 +4007,8 @@
       <c r="AM74" s="12"/>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>67</v>
+      <c r="A75" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3969,9 +4040,9 @@
       <c r="AC75" s="12"/>
       <c r="AD75" s="12"/>
       <c r="AE75" s="12"/>
-      <c r="AF75" s="12"/>
-      <c r="AG75" s="12"/>
-      <c r="AH75" s="12"/>
+      <c r="AF75" s="16"/>
+      <c r="AG75" s="16"/>
+      <c r="AH75" s="16"/>
       <c r="AI75" s="12"/>
       <c r="AJ75" s="12"/>
       <c r="AK75" s="12"/>
@@ -3979,8 +4050,8 @@
       <c r="AM75" s="12"/>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>68</v>
+      <c r="A76" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -4012,9 +4083,9 @@
       <c r="AC76" s="12"/>
       <c r="AD76" s="12"/>
       <c r="AE76" s="12"/>
-      <c r="AF76" s="12"/>
-      <c r="AG76" s="12"/>
-      <c r="AH76" s="12"/>
+      <c r="AF76" s="28"/>
+      <c r="AG76" s="28"/>
+      <c r="AH76" s="28"/>
       <c r="AI76" s="12"/>
       <c r="AJ76" s="12"/>
       <c r="AK76" s="12"/>
@@ -4022,9 +4093,6 @@
       <c r="AM76" s="12"/>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>69</v>
-      </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -4066,7 +4134,7 @@
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -4108,6 +4176,9 @@
       <c r="AM78" s="12"/>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -4149,7 +4220,7 @@
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4192,7 +4263,7 @@
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4234,6 +4305,9 @@
       <c r="AM81" s="12"/>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -4274,6 +4348,9 @@
       <c r="AM82" s="12"/>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -4314,6 +4391,9 @@
       <c r="AM83" s="12"/>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -4354,6 +4434,9 @@
       <c r="AM84" s="12"/>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -4434,6 +4517,9 @@
       <c r="AM86" s="12"/>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -4474,6 +4560,9 @@
       <c r="AM87" s="12"/>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -4713,49 +4802,49 @@
       <c r="AL93" s="12"/>
       <c r="AM93" s="12"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>78</v>
+      <c r="A102" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
-        <v>79</v>
+      <c r="A103" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>80</v>
+      <c r="A104" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>81</v>
+      <c r="A105" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>82</v>
+      <c r="A106" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>83</v>
+      <c r="A107" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
-        <v>84</v>
+      <c r="A108" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
-        <v>85</v>
+      <c r="A109" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
